--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem2/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem2/42/correct_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,31 +467,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+          <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
+          <t>Calibrate IMU</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-13</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -520,6 +520,726 @@
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Go to Profile &gt; Settings to update firmware</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3-10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gyroscope initialization failed Restart aircraft .</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Restart aircraft</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3-4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Satellite positioning off Fly with Caution .</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Fly with Caution</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3-5</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Visual positioning inaccurate Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Visual positioning inaccurate</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Please fly away or land with caution</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10-16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Your aircraft is at the boundary of an Altitude Zone</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0-9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>High wind velocity Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>High wind velocity</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>13</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Compass interference</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>13</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2-14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>17</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Fly with caution</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6-8</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>19</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Running Flight Simulator Restart aircraft to take off .</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Running Flight Simulator</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>21</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Take care of your gimbal when landing</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8-14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>23</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Remote controller signal weak Adjust remote controller antennas .</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Remote controller signal weak</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0-3</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>23</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Remote controller signal weak Adjust remote controller antennas .</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Adjust remote controller antennas</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4-7</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>24</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Fly with caution</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9-11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>25</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Battery overheating</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>26</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>IMU attitude restricted Ensure aircraft is level .</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ensure aircraft is level</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3-6</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>29</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Manually adjust flight route or return to home</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6-13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>33</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2-14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Aircraft power insufficient Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Aircraft power insufficient</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>38</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Contact DJI Support for assistance</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4-8</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>39</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Compass data error Please contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Please contact DJI Support</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3-6</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>40</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Extended flight distance detected</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0-3</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>44</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Aircraft takeoff altitude error Restart aircraft .</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Restart aircraft</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4-5</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
